--- a/data/CreateLead.xlsx
+++ b/data/CreateLead.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>cName</t>
   </si>
@@ -46,10 +46,16 @@
     <t>Navas</t>
   </si>
   <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>LEAD_EXISTCUST</t>
+    <t>Uname</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>DemoSalesManager</t>
+  </si>
+  <si>
+    <t>crmsfa</t>
   </si>
 </sst>
 </file>
@@ -399,67 +405,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
